--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2366829.024791213</v>
+        <v>-2368826.697804058</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>347.7221704741099</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>287.7977187205007</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>218.8350551807864</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>333.6864381084204</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>266.6210949690529</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>163.939837924303</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>284.6200697443034</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>43.60620160013919</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>118.0056219508402</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>315.9099902864843</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.786859782538162</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>239.5185571033088</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185879</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>161.8175117958952</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>207.0920728594998</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>43.72170015350625</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.16481274941307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E25" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373733</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,7 +2530,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463141</v>
+        <v>42.28735533463171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2767,7 +2767,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941873</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463126</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,19 +3004,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463104</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689368</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,7 +4189,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689365</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>916.0775323114322</v>
+        <v>1134.473993239633</v>
       </c>
       <c r="C2" t="n">
-        <v>625.3727659270879</v>
+        <v>765.5114762992212</v>
       </c>
       <c r="D2" t="n">
-        <v>625.3727659270879</v>
+        <v>544.4659660155985</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941846</v>
+        <v>1521.073833303755</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,37 +4492,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628421</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.179761166176</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>1156.179761166176</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>797.9140625594257</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.779601230298</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>902.4179758042681</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C8" t="n">
-        <v>533.4554588638564</v>
+        <v>825.7212517577275</v>
       </c>
       <c r="D8" t="n">
-        <v>533.4554588638564</v>
+        <v>467.455553150977</v>
       </c>
       <c r="E8" t="n">
-        <v>533.4554588638564</v>
+        <v>81.66730055273274</v>
       </c>
       <c r="F8" t="n">
-        <v>526.5099581146529</v>
+        <v>74.72179980352927</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>60.79839574212017</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,10 +4884,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4981,22 +4981,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5018,46 +5018,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5239,10 +5239,10 @@
         <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5464,16 +5464,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,16 +5592,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N18" t="n">
         <v>1171.725741678162</v>
@@ -5695,19 +5695,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>800.6837097077201</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>545.9992215018333</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
         <v>545.9992215018333</v>
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,13 +5832,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341675</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141292</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N21" t="n">
         <v>1443.347833878255</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383447</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324578</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W22" t="n">
-        <v>420.3226148324578</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3330639344405</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>310.3166078765829</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141288</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
@@ -6151,7 +6151,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6160,13 +6160,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O25" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P25" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
@@ -6187,10 +6187,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G28" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,13 +6543,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N30" t="n">
         <v>1171.725741678162</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6652,7 +6652,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
         <v>1304.027639859417</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N33" t="n">
-        <v>1171.725741678162</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O33" t="n">
-        <v>1841.189502980821</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2361.490124716568</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6835,7 +6835,7 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506726</v>
@@ -6844,10 +6844,10 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,10 +6889,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -6917,46 +6917,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141288</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.725741678162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,22 +7114,22 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
@@ -7242,34 +7242,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O39" t="n">
-        <v>1841.189502980821</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028586</v>
@@ -7333,10 +7333,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.725741678162</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,13 +7819,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970648</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>274.365749697064</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.3657496970637</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338571</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,16 +9960,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>349.765300333857</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>202.5230052237931</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>349.7653003338568</v>
+        <v>349.765300333856</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>274.3657496970639</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>165.9802687929764</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10674,10 +10674,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>360.5026862907248</v>
       </c>
       <c r="O36" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,19 +10908,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>94.13752431970539</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>274.3657496970648</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>349.7653003338569</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>5.10066308935896</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>77.47517305050683</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>48.2439319638414</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,22 +22711,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>146.6290191212929</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>124.4198406026821</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>79.43092547709125</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>136.110280028431</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.4198406026817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1305150.52341802</v>
+        <v>1305150.523418019</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108051.5433095248</v>
+        <v>108051.5433095249</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26424,7 +26424,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26436,28 +26436,28 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="J4" t="n">
+        <v>37464.45686275951</v>
+      </c>
+      <c r="K4" t="n">
         <v>37464.45686275958</v>
       </c>
-      <c r="J4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="L4" t="n">
-        <v>37464.45686275958</v>
-      </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275963</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26491,25 @@
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="K5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-780878.5005874789</v>
+        <v>-781091.9125773574</v>
       </c>
       <c r="C6" t="n">
         <v>-239634.0363146321</v>
@@ -26528,25 +26528,25 @@
         <v>-239634.0363146321</v>
       </c>
       <c r="E6" t="n">
-        <v>-632193.0320470519</v>
+        <v>-632290.4911730239</v>
       </c>
       <c r="F6" t="n">
-        <v>-107032.9955701557</v>
+        <v>-107130.4546961279</v>
       </c>
       <c r="G6" t="n">
-        <v>-107032.9955701557</v>
+        <v>-107130.4546961279</v>
       </c>
       <c r="H6" t="n">
-        <v>-107032.9955701557</v>
+        <v>-107130.4546961279</v>
       </c>
       <c r="I6" t="n">
         <v>-189685.0747864975</v>
       </c>
       <c r="J6" t="n">
-        <v>-311602.7818753779</v>
+        <v>-311602.781875378</v>
       </c>
       <c r="K6" t="n">
-        <v>-135179.5626827849</v>
+        <v>-135179.562682785</v>
       </c>
       <c r="L6" t="n">
         <v>-135179.562682785</v>
@@ -26558,7 +26558,7 @@
         <v>-189685.0747864975</v>
       </c>
       <c r="O6" t="n">
-        <v>-135179.5626827851</v>
+        <v>-135179.5626827849</v>
       </c>
       <c r="P6" t="n">
         <v>-135179.562682785</v>
@@ -26704,19 +26704,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26747,37 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26926,22 +26926,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.01167118937065</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>135.8479864398965</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>19.66077927292486</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>217.9905321479588</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>101.6178689117502</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>242.6756726418386</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>168.5173763857508</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>97.87417973431064</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>317.135912981819</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.76331713866892</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="26">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>481.4591646285895</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,13 +35969,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>523.6234546530883</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>607.5603230950767</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749652</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K25" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L25" t="n">
         <v>318.3460770095692</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>660.1896773843232</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>535.7175786218061</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749643</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,13 +36999,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>584.7901267475303</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>253.9933015780506</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887377</v>
       </c>
       <c r="O36" t="n">
-        <v>632.1290025749652</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>427.3320977177183</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>481.4591646285895</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>682.9598737318697</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>93.11369587443312</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>406.7164955186335</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
